--- a/DbTool/Template/ThemeSample/maroonBeige.xlsx
+++ b/DbTool/Template/ThemeSample/maroonBeige.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\AmandaChou\git\github\DevTool\DbTool\bin\Release\net6.0-windows\CustomTheme\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\AmandaChou\git\github\DevTool\DbTool\Template\ThemeSample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F4ADD5-2DF3-4910-A0D3-54D55D2C3FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69C500D-29BF-43CD-BE70-409D4523E347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2616" yWindow="792" windowWidth="17280" windowHeight="8964" xr2:uid="{93EE71A6-18E9-487D-ACF7-7CE2E333B3E7}"/>
+    <workbookView xWindow="7440" yWindow="1296" windowWidth="15120" windowHeight="10056" xr2:uid="{93EE71A6-18E9-487D-ACF7-7CE2E333B3E7}"/>
   </bookViews>
   <sheets>
     <sheet name="StyleTemplate" sheetId="4" r:id="rId1"/>
@@ -81,18 +81,16 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF920000"/>
-      <name val="新細明體"/>
-      <family val="1"/>
+      <name val="Microsoft JhengHei UI"/>
+      <family val="2"/>
       <charset val="136"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFAC0000"/>
-      <name val="新細明體"/>
-      <family val="1"/>
+      <name val="Microsoft JhengHei UI"/>
+      <family val="2"/>
       <charset val="136"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -468,7 +466,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>

--- a/DbTool/Template/ThemeSample/maroonBeige.xlsx
+++ b/DbTool/Template/ThemeSample/maroonBeige.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\AmandaChou\git\github\DevTool\DbTool\Template\ThemeSample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69C500D-29BF-43CD-BE70-409D4523E347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FD8461-A115-4828-8DBA-BBB694353C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7440" yWindow="1296" windowWidth="15120" windowHeight="10056" xr2:uid="{93EE71A6-18E9-487D-ACF7-7CE2E333B3E7}"/>
   </bookViews>
@@ -77,17 +77,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF920000"/>
+      <color rgb="FFAC0000"/>
       <name val="Microsoft JhengHei UI"/>
       <family val="2"/>
       <charset val="136"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFAC0000"/>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF920000"/>
       <name val="Microsoft JhengHei UI"/>
       <family val="2"/>
       <charset val="136"/>
@@ -466,36 +466,36 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.875" customWidth="1"/>
+    <col min="1" max="1" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
     </row>

--- a/DbTool/Template/ThemeSample/maroonBeige.xlsx
+++ b/DbTool/Template/ThemeSample/maroonBeige.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\AmandaChou\git\github\DevTool\DbTool\Template\ThemeSample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FD8461-A115-4828-8DBA-BBB694353C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9BB049-4FCB-4F5A-B8C6-7FBC87528084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7440" yWindow="1296" windowWidth="15120" windowHeight="10056" xr2:uid="{93EE71A6-18E9-487D-ACF7-7CE2E333B3E7}"/>
   </bookViews>
@@ -36,23 +36,112 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>TableName 在各 sheet 樣式</t>
+    <r>
+      <t xml:space="preserve">TableList header </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF920000"/>
+        <rFont val="Microsoft JhengHei UI"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>樣式</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Column 樣式</t>
+    <r>
+      <t xml:space="preserve">TableList </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFAC0000"/>
+        <rFont val="Microsoft JhengHei UI"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>樣式</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Column header 樣式</t>
+    <r>
+      <t xml:space="preserve">TableName </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF920000"/>
+        <rFont val="Microsoft JhengHei UI"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>在各</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF920000"/>
+        <rFont val="Comic Sans MS"/>
+        <family val="4"/>
+      </rPr>
+      <t xml:space="preserve"> sheet </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF920000"/>
+        <rFont val="Microsoft JhengHei UI"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>樣式</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TableList header 樣式</t>
+    <r>
+      <t xml:space="preserve">Column header </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF920000"/>
+        <rFont val="Microsoft JhengHei UI"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>樣式</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TableList 樣式</t>
+    <r>
+      <t xml:space="preserve">Column </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFAC0000"/>
+        <rFont val="Microsoft JhengHei UI"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>樣式</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -60,7 +149,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +180,20 @@
       <name val="Microsoft JhengHei UI"/>
       <family val="2"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF920000"/>
+      <name val="Comic Sans MS"/>
+      <family val="4"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFAC0000"/>
+      <name val="Comic Sans MS"/>
+      <family val="4"/>
     </font>
   </fonts>
   <fills count="3">
@@ -140,8 +243,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -465,38 +568,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73953184-80B9-45BC-A4A3-76DD0CE18A1C}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:1" ht="19.8" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="19.8" x14ac:dyDescent="0.5">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="19.8" x14ac:dyDescent="0.5">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="5" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
